--- a/docs/Krystian-Usarz-Zeitplanung.xlsx
+++ b/docs/Krystian-Usarz-Zeitplanung.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="DieseArbeitsmappe" showPivotChartFilter="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kus\OneDrive - Sage Software, Inc\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\ACW\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8538A57-B3E3-48F2-8E19-3D2CBAC3E1EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A62B5179-AC5D-45BD-8790-0DDFC4F66BB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-75" windowWidth="29040" windowHeight="15840" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zeitplanung" sheetId="1" r:id="rId1"/>
@@ -1959,7 +1959,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10.5</c:v>
+                  <c:v>18.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -2466,8 +2466,8 @@
   </sheetPr>
   <dimension ref="A1:BJ45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B22" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="Q24" sqref="Q24"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A34" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="Y48" sqref="Y48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3753,7 +3753,7 @@
       </c>
       <c r="D18" s="41">
         <f>SUM(D19:D33)</f>
-        <v>10.5</v>
+        <v>18.5</v>
       </c>
       <c r="E18" s="31"/>
       <c r="F18" s="30"/>
@@ -3976,7 +3976,7 @@
       </c>
       <c r="D21" s="80">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E21" s="49">
         <v>1</v>
@@ -3995,7 +3995,9 @@
       <c r="Q21" s="109">
         <v>1</v>
       </c>
-      <c r="R21" s="55"/>
+      <c r="R21" s="55">
+        <v>3</v>
+      </c>
       <c r="S21" s="56"/>
       <c r="T21" s="57"/>
       <c r="U21" s="58"/>
@@ -4053,7 +4055,7 @@
       </c>
       <c r="D22" s="80">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E22" s="49">
         <v>1</v>
@@ -4072,7 +4074,9 @@
       <c r="Q22" s="109">
         <v>1</v>
       </c>
-      <c r="R22" s="115"/>
+      <c r="R22" s="115">
+        <v>2</v>
+      </c>
       <c r="S22" s="56"/>
       <c r="T22" s="57"/>
       <c r="U22" s="58"/>
@@ -4130,7 +4134,7 @@
       </c>
       <c r="D23" s="80">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E23" s="49">
         <v>1</v>
@@ -4149,7 +4153,9 @@
       <c r="Q23" s="111">
         <v>2</v>
       </c>
-      <c r="R23" s="108"/>
+      <c r="R23" s="108">
+        <v>1</v>
+      </c>
       <c r="S23" s="56"/>
       <c r="T23" s="57"/>
       <c r="U23" s="112"/>
@@ -4880,7 +4886,7 @@
       </c>
       <c r="D33" s="80">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E33" s="49">
         <v>1</v>
@@ -4901,7 +4907,9 @@
       <c r="Q33" s="54">
         <v>4</v>
       </c>
-      <c r="R33" s="55"/>
+      <c r="R33" s="55">
+        <v>2</v>
+      </c>
       <c r="S33" s="56"/>
       <c r="T33" s="57"/>
       <c r="U33" s="68"/>
@@ -5744,7 +5752,7 @@
       </c>
       <c r="D45" s="36">
         <f>D41+D38+D34+D18+D14+D9</f>
-        <v>16.5</v>
+        <v>24.5</v>
       </c>
       <c r="E45" s="36"/>
       <c r="F45" s="37"/>
@@ -5794,7 +5802,7 @@
       </c>
       <c r="R45" s="38">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="S45" s="38">
         <f t="shared" si="4"/>
@@ -6088,7 +6096,7 @@
       </c>
       <c r="D5" s="77">
         <f>Zeitplanung!D18</f>
-        <v>10.5</v>
+        <v>18.5</v>
       </c>
       <c r="E5" s="79"/>
       <c r="F5" s="78"/>

--- a/docs/Krystian-Usarz-Zeitplanung.xlsx
+++ b/docs/Krystian-Usarz-Zeitplanung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\ACW\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A62B5179-AC5D-45BD-8790-0DDFC4F66BB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5E2E601-310D-4F2C-8818-4636EC9B84F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1959,7 +1959,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18.5</c:v>
+                  <c:v>26.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -2466,8 +2466,8 @@
   </sheetPr>
   <dimension ref="A1:BJ45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A34" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="Y48" sqref="Y48"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="U31" sqref="U31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3753,7 +3753,7 @@
       </c>
       <c r="D18" s="41">
         <f>SUM(D19:D33)</f>
-        <v>18.5</v>
+        <v>26.5</v>
       </c>
       <c r="E18" s="31"/>
       <c r="F18" s="30"/>
@@ -4134,7 +4134,7 @@
       </c>
       <c r="D23" s="80">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E23" s="49">
         <v>1</v>
@@ -4160,7 +4160,9 @@
       <c r="T23" s="57"/>
       <c r="U23" s="112"/>
       <c r="V23" s="59"/>
-      <c r="W23" s="115"/>
+      <c r="W23" s="115">
+        <v>6</v>
+      </c>
       <c r="X23" s="60"/>
       <c r="Y23" s="55"/>
       <c r="Z23" s="56"/>
@@ -4515,7 +4517,7 @@
       </c>
       <c r="D28" s="80">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E28" s="49">
         <v>2</v>
@@ -4537,7 +4539,9 @@
       <c r="T28" s="57"/>
       <c r="U28" s="58"/>
       <c r="V28" s="59"/>
-      <c r="W28" s="115"/>
+      <c r="W28" s="115">
+        <v>2</v>
+      </c>
       <c r="X28" s="115"/>
       <c r="Y28" s="108"/>
       <c r="Z28" s="56"/>
@@ -5752,7 +5756,7 @@
       </c>
       <c r="D45" s="36">
         <f>D41+D38+D34+D18+D14+D9</f>
-        <v>24.5</v>
+        <v>32.5</v>
       </c>
       <c r="E45" s="36"/>
       <c r="F45" s="37"/>
@@ -5822,7 +5826,7 @@
       </c>
       <c r="W45" s="38">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="X45" s="38">
         <f t="shared" si="4"/>
@@ -6096,7 +6100,7 @@
       </c>
       <c r="D5" s="77">
         <f>Zeitplanung!D18</f>
-        <v>18.5</v>
+        <v>26.5</v>
       </c>
       <c r="E5" s="79"/>
       <c r="F5" s="78"/>

--- a/docs/Krystian-Usarz-Zeitplanung.xlsx
+++ b/docs/Krystian-Usarz-Zeitplanung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\ACW\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5E2E601-310D-4F2C-8818-4636EC9B84F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BFA0D83-A537-4F4C-8DB4-B5F8F87BF652}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1959,7 +1959,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>26.5</c:v>
+                  <c:v>34.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -2466,8 +2466,8 @@
   </sheetPr>
   <dimension ref="A1:BJ45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="U31" sqref="U31"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AA34" sqref="AA34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3753,7 +3753,7 @@
       </c>
       <c r="D18" s="41">
         <f>SUM(D19:D33)</f>
-        <v>26.5</v>
+        <v>34.5</v>
       </c>
       <c r="E18" s="31"/>
       <c r="F18" s="30"/>
@@ -4134,7 +4134,7 @@
       </c>
       <c r="D23" s="80">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E23" s="49">
         <v>1</v>
@@ -4163,7 +4163,9 @@
       <c r="W23" s="115">
         <v>6</v>
       </c>
-      <c r="X23" s="60"/>
+      <c r="X23" s="60">
+        <v>2</v>
+      </c>
       <c r="Y23" s="55"/>
       <c r="Z23" s="56"/>
       <c r="AA23" s="57"/>
@@ -4517,7 +4519,7 @@
       </c>
       <c r="D28" s="80">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E28" s="49">
         <v>2</v>
@@ -4542,7 +4544,9 @@
       <c r="W28" s="115">
         <v>2</v>
       </c>
-      <c r="X28" s="115"/>
+      <c r="X28" s="115">
+        <v>6</v>
+      </c>
       <c r="Y28" s="108"/>
       <c r="Z28" s="56"/>
       <c r="AA28" s="57"/>
@@ -5756,7 +5760,7 @@
       </c>
       <c r="D45" s="36">
         <f>D41+D38+D34+D18+D14+D9</f>
-        <v>32.5</v>
+        <v>40.5</v>
       </c>
       <c r="E45" s="36"/>
       <c r="F45" s="37"/>
@@ -5830,7 +5834,7 @@
       </c>
       <c r="X45" s="38">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Y45" s="38">
         <f t="shared" si="4"/>
@@ -6100,7 +6104,7 @@
       </c>
       <c r="D5" s="77">
         <f>Zeitplanung!D18</f>
-        <v>26.5</v>
+        <v>34.5</v>
       </c>
       <c r="E5" s="79"/>
       <c r="F5" s="78"/>

--- a/docs/Krystian-Usarz-Zeitplanung.xlsx
+++ b/docs/Krystian-Usarz-Zeitplanung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\ACW\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BFA0D83-A537-4F4C-8DB4-B5F8F87BF652}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED909D5D-E2A0-4E2A-9EE3-035294CF2D41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -348,7 +348,7 @@
     <t>Grundgerüst der Internetseite erstellen</t>
   </si>
   <si>
-    <t>reservezeit/nacharbeitungszeit</t>
+    <t>A012/A013</t>
   </si>
 </sst>
 </file>
@@ -1316,7 +1316,7 @@
     <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="130">
+  <cellXfs count="131">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1771,6 +1771,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="48" xfId="9" applyProtection="1">
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -1959,7 +1962,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>34.5</c:v>
+                  <c:v>42.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -2466,8 +2469,8 @@
   </sheetPr>
   <dimension ref="A1:BJ45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AA34" sqref="AA34"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A24" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="L35" sqref="L35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3753,7 +3756,7 @@
       </c>
       <c r="D18" s="41">
         <f>SUM(D19:D33)</f>
-        <v>34.5</v>
+        <v>42.5</v>
       </c>
       <c r="E18" s="31"/>
       <c r="F18" s="30"/>
@@ -4369,7 +4372,7 @@
       </c>
       <c r="D26" s="80">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E26" s="49">
         <v>2</v>
@@ -4393,7 +4396,9 @@
       <c r="V26" s="112"/>
       <c r="W26" s="54"/>
       <c r="X26" s="109"/>
-      <c r="Y26" s="55"/>
+      <c r="Y26" s="55">
+        <v>4</v>
+      </c>
       <c r="Z26" s="56"/>
       <c r="AA26" s="57"/>
       <c r="AB26" s="97"/>
@@ -4821,7 +4826,7 @@
       <c r="C32" s="48"/>
       <c r="D32" s="80">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E32" s="49"/>
       <c r="F32" s="50"/>
@@ -4843,7 +4848,9 @@
       <c r="V32" s="69"/>
       <c r="W32" s="54"/>
       <c r="X32" s="54"/>
-      <c r="Y32" s="55"/>
+      <c r="Y32" s="55">
+        <v>4</v>
+      </c>
       <c r="Z32" s="56"/>
       <c r="AA32" s="57"/>
       <c r="AB32" s="100"/>
@@ -4871,7 +4878,7 @@
       <c r="AX32" s="69"/>
       <c r="AY32" s="87"/>
       <c r="AZ32" s="87"/>
-      <c r="BA32" s="114"/>
+      <c r="BA32" s="130"/>
       <c r="BB32" s="56"/>
       <c r="BC32" s="57"/>
       <c r="BD32" s="68"/>
@@ -5760,7 +5767,7 @@
       </c>
       <c r="D45" s="36">
         <f>D41+D38+D34+D18+D14+D9</f>
-        <v>40.5</v>
+        <v>48.5</v>
       </c>
       <c r="E45" s="36"/>
       <c r="F45" s="37"/>
@@ -5838,7 +5845,7 @@
       </c>
       <c r="Y45" s="38">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Z45" s="38">
         <f t="shared" si="4"/>
@@ -6104,7 +6111,7 @@
       </c>
       <c r="D5" s="77">
         <f>Zeitplanung!D18</f>
-        <v>34.5</v>
+        <v>42.5</v>
       </c>
       <c r="E5" s="79"/>
       <c r="F5" s="78"/>

--- a/docs/Krystian-Usarz-Zeitplanung.xlsx
+++ b/docs/Krystian-Usarz-Zeitplanung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\ACW\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED909D5D-E2A0-4E2A-9EE3-035294CF2D41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D50FD57-CDAC-4B17-9403-2BFD297BB7C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1741,6 +1741,9 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="48" xfId="9" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1771,9 +1774,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="48" xfId="9" applyProtection="1">
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -1962,7 +1962,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42.5</c:v>
+                  <c:v>50.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -2469,8 +2469,8 @@
   </sheetPr>
   <dimension ref="A1:BJ45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A24" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="L35" sqref="L35"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A15" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AC31" sqref="AC31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2789,88 +2789,88 @@
     <row r="7" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9"/>
       <c r="B7" s="26"/>
-      <c r="C7" s="121" t="s">
+      <c r="C7" s="122" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="121"/>
+      <c r="D7" s="122"/>
       <c r="E7" s="27" t="s">
         <v>19</v>
       </c>
       <c r="F7" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="122" t="s">
+      <c r="G7" s="123" t="s">
         <v>42</v>
       </c>
-      <c r="H7" s="122"/>
-      <c r="I7" s="122"/>
-      <c r="J7" s="122"/>
-      <c r="K7" s="122"/>
-      <c r="L7" s="122"/>
-      <c r="M7" s="123"/>
-      <c r="N7" s="122" t="s">
+      <c r="H7" s="123"/>
+      <c r="I7" s="123"/>
+      <c r="J7" s="123"/>
+      <c r="K7" s="123"/>
+      <c r="L7" s="123"/>
+      <c r="M7" s="124"/>
+      <c r="N7" s="123" t="s">
         <v>30</v>
       </c>
-      <c r="O7" s="122"/>
-      <c r="P7" s="122"/>
-      <c r="Q7" s="122"/>
-      <c r="R7" s="122"/>
-      <c r="S7" s="122"/>
-      <c r="T7" s="123"/>
-      <c r="U7" s="122" t="s">
+      <c r="O7" s="123"/>
+      <c r="P7" s="123"/>
+      <c r="Q7" s="123"/>
+      <c r="R7" s="123"/>
+      <c r="S7" s="123"/>
+      <c r="T7" s="124"/>
+      <c r="U7" s="123" t="s">
         <v>31</v>
       </c>
-      <c r="V7" s="122"/>
-      <c r="W7" s="122"/>
-      <c r="X7" s="122"/>
-      <c r="Y7" s="122"/>
-      <c r="Z7" s="122"/>
-      <c r="AA7" s="123"/>
-      <c r="AB7" s="124" t="s">
+      <c r="V7" s="123"/>
+      <c r="W7" s="123"/>
+      <c r="X7" s="123"/>
+      <c r="Y7" s="123"/>
+      <c r="Z7" s="123"/>
+      <c r="AA7" s="124"/>
+      <c r="AB7" s="125" t="s">
         <v>32</v>
       </c>
-      <c r="AC7" s="122"/>
-      <c r="AD7" s="122"/>
-      <c r="AE7" s="122"/>
-      <c r="AF7" s="122"/>
-      <c r="AG7" s="122"/>
-      <c r="AH7" s="123"/>
-      <c r="AI7" s="122" t="s">
+      <c r="AC7" s="123"/>
+      <c r="AD7" s="123"/>
+      <c r="AE7" s="123"/>
+      <c r="AF7" s="123"/>
+      <c r="AG7" s="123"/>
+      <c r="AH7" s="124"/>
+      <c r="AI7" s="123" t="s">
         <v>33</v>
       </c>
-      <c r="AJ7" s="122"/>
-      <c r="AK7" s="122"/>
-      <c r="AL7" s="122"/>
-      <c r="AM7" s="122"/>
-      <c r="AN7" s="122"/>
-      <c r="AO7" s="123"/>
-      <c r="AP7" s="124" t="s">
+      <c r="AJ7" s="123"/>
+      <c r="AK7" s="123"/>
+      <c r="AL7" s="123"/>
+      <c r="AM7" s="123"/>
+      <c r="AN7" s="123"/>
+      <c r="AO7" s="124"/>
+      <c r="AP7" s="125" t="s">
         <v>34</v>
       </c>
-      <c r="AQ7" s="122"/>
-      <c r="AR7" s="122"/>
-      <c r="AS7" s="122"/>
-      <c r="AT7" s="122"/>
-      <c r="AU7" s="122"/>
-      <c r="AV7" s="123"/>
-      <c r="AW7" s="122" t="s">
+      <c r="AQ7" s="123"/>
+      <c r="AR7" s="123"/>
+      <c r="AS7" s="123"/>
+      <c r="AT7" s="123"/>
+      <c r="AU7" s="123"/>
+      <c r="AV7" s="124"/>
+      <c r="AW7" s="123" t="s">
         <v>35</v>
       </c>
-      <c r="AX7" s="122"/>
-      <c r="AY7" s="122"/>
-      <c r="AZ7" s="122"/>
-      <c r="BA7" s="122"/>
-      <c r="BB7" s="122"/>
-      <c r="BC7" s="123"/>
-      <c r="BD7" s="124" t="s">
+      <c r="AX7" s="123"/>
+      <c r="AY7" s="123"/>
+      <c r="AZ7" s="123"/>
+      <c r="BA7" s="123"/>
+      <c r="BB7" s="123"/>
+      <c r="BC7" s="124"/>
+      <c r="BD7" s="125" t="s">
         <v>36</v>
       </c>
-      <c r="BE7" s="122"/>
-      <c r="BF7" s="122"/>
-      <c r="BG7" s="122"/>
-      <c r="BH7" s="122"/>
-      <c r="BI7" s="122"/>
-      <c r="BJ7" s="125"/>
+      <c r="BE7" s="123"/>
+      <c r="BF7" s="123"/>
+      <c r="BG7" s="123"/>
+      <c r="BH7" s="123"/>
+      <c r="BI7" s="123"/>
+      <c r="BJ7" s="126"/>
     </row>
     <row r="8" spans="1:62" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
@@ -3756,7 +3756,7 @@
       </c>
       <c r="D18" s="41">
         <f>SUM(D19:D33)</f>
-        <v>42.5</v>
+        <v>50.5</v>
       </c>
       <c r="E18" s="31"/>
       <c r="F18" s="30"/>
@@ -4372,7 +4372,7 @@
       </c>
       <c r="D26" s="80">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E26" s="49">
         <v>2</v>
@@ -4401,7 +4401,9 @@
       </c>
       <c r="Z26" s="56"/>
       <c r="AA26" s="57"/>
-      <c r="AB26" s="97"/>
+      <c r="AB26" s="97">
+        <v>8</v>
+      </c>
       <c r="AC26" s="60"/>
       <c r="AD26" s="54"/>
       <c r="AE26" s="87"/>
@@ -4878,7 +4880,7 @@
       <c r="AX32" s="69"/>
       <c r="AY32" s="87"/>
       <c r="AZ32" s="87"/>
-      <c r="BA32" s="130"/>
+      <c r="BA32" s="121"/>
       <c r="BB32" s="56"/>
       <c r="BC32" s="57"/>
       <c r="BD32" s="68"/>
@@ -5767,7 +5769,7 @@
       </c>
       <c r="D45" s="36">
         <f>D41+D38+D34+D18+D14+D9</f>
-        <v>48.5</v>
+        <v>56.5</v>
       </c>
       <c r="E45" s="36"/>
       <c r="F45" s="37"/>
@@ -5857,7 +5859,7 @@
       </c>
       <c r="AB45" s="38">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AC45" s="38">
         <f t="shared" si="4"/>
@@ -6054,10 +6056,10 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:6" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="128" t="s">
+      <c r="A2" s="129" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="129"/>
+      <c r="B2" s="130"/>
       <c r="C2" s="76" t="s">
         <v>13</v>
       </c>
@@ -6066,11 +6068,11 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="126" t="str">
+      <c r="A3" s="127" t="str">
         <f>Zeitplanung!B9</f>
         <v>Administration, Planung</v>
       </c>
-      <c r="B3" s="127"/>
+      <c r="B3" s="128"/>
       <c r="C3" s="77">
         <f>Zeitplanung!C9</f>
         <v>5</v>
@@ -6083,11 +6085,11 @@
       <c r="F3" s="78"/>
     </row>
     <row r="4" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="126" t="str">
+      <c r="A4" s="127" t="str">
         <f>Zeitplanung!B14</f>
         <v>Analyse &amp; Design</v>
       </c>
-      <c r="B4" s="127"/>
+      <c r="B4" s="128"/>
       <c r="C4" s="77">
         <f>Zeitplanung!C14</f>
         <v>1</v>
@@ -6100,28 +6102,28 @@
       <c r="F4" s="78"/>
     </row>
     <row r="5" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="126" t="str">
+      <c r="A5" s="127" t="str">
         <f>Zeitplanung!B18</f>
         <v>Implementation</v>
       </c>
-      <c r="B5" s="127"/>
+      <c r="B5" s="128"/>
       <c r="C5" s="77">
         <f>Zeitplanung!C18</f>
         <v>70.5</v>
       </c>
       <c r="D5" s="77">
         <f>Zeitplanung!D18</f>
-        <v>42.5</v>
+        <v>50.5</v>
       </c>
       <c r="E5" s="79"/>
       <c r="F5" s="78"/>
     </row>
     <row r="6" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="126" t="str">
+      <c r="A6" s="127" t="str">
         <f>Zeitplanung!B34</f>
         <v>Testen</v>
       </c>
-      <c r="B6" s="127"/>
+      <c r="B6" s="128"/>
       <c r="C6" s="77">
         <f>Zeitplanung!C34</f>
         <v>0</v>
@@ -6133,11 +6135,11 @@
       <c r="F6" s="78"/>
     </row>
     <row r="7" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="126" t="str">
+      <c r="A7" s="127" t="str">
         <f>Zeitplanung!B38</f>
         <v>Diverses</v>
       </c>
-      <c r="B7" s="127"/>
+      <c r="B7" s="128"/>
       <c r="C7" s="77">
         <f>Zeitplanung!C38</f>
         <v>0</v>
@@ -6149,11 +6151,11 @@
       <c r="F7" s="78"/>
     </row>
     <row r="8" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="126" t="str">
+      <c r="A8" s="127" t="str">
         <f>Zeitplanung!B41</f>
         <v>Abschluss</v>
       </c>
-      <c r="B8" s="127"/>
+      <c r="B8" s="128"/>
       <c r="C8" s="77">
         <f>Zeitplanung!C41</f>
         <v>0</v>

--- a/docs/Krystian-Usarz-Zeitplanung.xlsx
+++ b/docs/Krystian-Usarz-Zeitplanung.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24729"/>
   <workbookPr codeName="DieseArbeitsmappe" showPivotChartFilter="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\ACW\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D50FD57-CDAC-4B17-9403-2BFD297BB7C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{365A5604-6257-4107-B886-A9112586C2C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1962,7 +1962,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>50.5</c:v>
+                  <c:v>74.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -2469,8 +2469,8 @@
   </sheetPr>
   <dimension ref="A1:BJ45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A15" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AC31" sqref="AC31"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B10" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="BA27" sqref="BA27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3756,7 +3756,7 @@
       </c>
       <c r="D18" s="41">
         <f>SUM(D19:D33)</f>
-        <v>50.5</v>
+        <v>74.5</v>
       </c>
       <c r="E18" s="31"/>
       <c r="F18" s="30"/>
@@ -4372,7 +4372,7 @@
       </c>
       <c r="D26" s="80">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="E26" s="49">
         <v>2</v>
@@ -4404,8 +4404,12 @@
       <c r="AB26" s="97">
         <v>8</v>
       </c>
-      <c r="AC26" s="60"/>
-      <c r="AD26" s="54"/>
+      <c r="AC26" s="60">
+        <v>8</v>
+      </c>
+      <c r="AD26" s="54">
+        <v>8</v>
+      </c>
       <c r="AE26" s="87"/>
       <c r="AF26" s="88"/>
       <c r="AG26" s="56"/>
@@ -4428,7 +4432,9 @@
       <c r="AX26" s="59"/>
       <c r="AY26" s="87"/>
       <c r="AZ26" s="87"/>
-      <c r="BA26" s="55"/>
+      <c r="BA26" s="55">
+        <v>8</v>
+      </c>
       <c r="BB26" s="56"/>
       <c r="BC26" s="57"/>
       <c r="BD26" s="58"/>
@@ -5769,7 +5775,7 @@
       </c>
       <c r="D45" s="36">
         <f>D41+D38+D34+D18+D14+D9</f>
-        <v>56.5</v>
+        <v>80.5</v>
       </c>
       <c r="E45" s="36"/>
       <c r="F45" s="37"/>
@@ -5863,11 +5869,11 @@
       </c>
       <c r="AC45" s="38">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AD45" s="38">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AE45" s="38">
         <f t="shared" si="4"/>
@@ -5959,7 +5965,7 @@
       </c>
       <c r="BA45" s="38">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="BB45" s="38">
         <f t="shared" si="5"/>
@@ -6113,7 +6119,7 @@
       </c>
       <c r="D5" s="77">
         <f>Zeitplanung!D18</f>
-        <v>50.5</v>
+        <v>74.5</v>
       </c>
       <c r="E5" s="79"/>
       <c r="F5" s="78"/>
